--- a/data/trans_orig/BARTHEL_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R3-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3520</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7982</v>
+        <v>8133</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09947991491814046</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02510984861338647</v>
+        <v>0.02500787511004978</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2255596267198172</v>
+        <v>0.2298254239913172</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>3528</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1143</v>
+        <v>1121</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9000</v>
+        <v>9255</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08992945207665654</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02914744100081077</v>
+        <v>0.02858188579377908</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2294116895991788</v>
+        <v>0.2358979871223794</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -786,19 +786,19 @@
         <v>7048</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3207</v>
+        <v>3116</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14003</v>
+        <v>13645</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09445858246558343</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04298461440252369</v>
+        <v>0.04176310012781616</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1876637602607311</v>
+        <v>0.18286236944022</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>31866</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27404</v>
+        <v>27253</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34497</v>
+        <v>34501</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9005200850818595</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.774440373280183</v>
+        <v>0.7701745760086827</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9748901513866135</v>
+        <v>0.9749921248899502</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -836,19 +836,19 @@
         <v>35703</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30231</v>
+        <v>29976</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38088</v>
+        <v>38110</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9100705479233435</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7705883104008211</v>
+        <v>0.7641020128776208</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9708525589991892</v>
+        <v>0.9714181142062209</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>69</v>
@@ -857,19 +857,19 @@
         <v>67569</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>60614</v>
+        <v>60972</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>71410</v>
+        <v>71501</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9055414175344165</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8123362397392686</v>
+        <v>0.8171376305597801</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9570153855974762</v>
+        <v>0.958236899872184</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>7846</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3893</v>
+        <v>3753</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14265</v>
+        <v>14330</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1177104896405888</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05840356721309281</v>
+        <v>0.0563080987873101</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2140114079281407</v>
+        <v>0.2149880436226201</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -982,19 +982,19 @@
         <v>17807</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11423</v>
+        <v>10668</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26574</v>
+        <v>26026</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1819397594897816</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1167057541482445</v>
+        <v>0.1089915654535015</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2715060281857563</v>
+        <v>0.2659146100697129</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -1003,19 +1003,19 @@
         <v>25653</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16580</v>
+        <v>17764</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35545</v>
+        <v>35791</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1559191208942968</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1007702721378108</v>
+        <v>0.1079683767003218</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2160390159776995</v>
+        <v>0.2175338140977498</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>58808</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52389</v>
+        <v>52324</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>62761</v>
+        <v>62901</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8822895103594112</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7859885920718599</v>
+        <v>0.7850119563773792</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9415964327869072</v>
+        <v>0.9436919012126894</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>79</v>
@@ -1053,19 +1053,19 @@
         <v>80068</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>71301</v>
+        <v>71849</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86452</v>
+        <v>87207</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8180602405102183</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7284939718142444</v>
+        <v>0.7340853899302869</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8832942458517555</v>
+        <v>0.8910084345464981</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>136</v>
@@ -1074,19 +1074,19 @@
         <v>138876</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>128984</v>
+        <v>128738</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>147949</v>
+        <v>146765</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8440808791057032</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7839609840222995</v>
+        <v>0.7824661859022503</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8992297278621891</v>
+        <v>0.892031623299678</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>3883</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8824</v>
+        <v>9504</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07622644937966754</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01911656506042025</v>
+        <v>0.01902596900258789</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1732166447293817</v>
+        <v>0.186570523377325</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1199,19 +1199,19 @@
         <v>16850</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10201</v>
+        <v>10080</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25711</v>
+        <v>25368</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.201740545405985</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.122134513277658</v>
+        <v>0.1206900135174721</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3078383062303435</v>
+        <v>0.3037284124454656</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -1220,19 +1220,19 @@
         <v>20733</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13543</v>
+        <v>13305</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30881</v>
+        <v>30599</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1541902903815608</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.10071837356276</v>
+        <v>0.09894748118253227</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2296649007739553</v>
+        <v>0.227568029638714</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>47057</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42116</v>
+        <v>41436</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49966</v>
+        <v>49971</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9237735506203325</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8267833552706183</v>
+        <v>0.8134294766226743</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9808834349395797</v>
+        <v>0.9809740309974121</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>67</v>
@@ -1270,19 +1270,19 @@
         <v>66671</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>57810</v>
+        <v>58153</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>73320</v>
+        <v>73441</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.798259454594015</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6921616937696563</v>
+        <v>0.6962715875545334</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8778654867223418</v>
+        <v>0.8793099864825276</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>116</v>
@@ -1291,19 +1291,19 @@
         <v>113728</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>103580</v>
+        <v>103862</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>120918</v>
+        <v>121156</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8458097096184392</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7703350992260447</v>
+        <v>0.772431970361286</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.89928162643724</v>
+        <v>0.9010525188174677</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>3480</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>933</v>
+        <v>848</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8009</v>
+        <v>8046</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0631307803127778</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01692255726970789</v>
+        <v>0.01539267178401727</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1452906014318133</v>
+        <v>0.1459611695925604</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1416,19 +1416,19 @@
         <v>18601</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12021</v>
+        <v>11259</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26496</v>
+        <v>25837</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2503112038165546</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1617666370455867</v>
+        <v>0.1515024612366163</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3565490678291515</v>
+        <v>0.3476800906114578</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -1437,19 +1437,19 @@
         <v>22081</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14993</v>
+        <v>14176</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31655</v>
+        <v>31674</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1705975314579204</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1158369528696554</v>
+        <v>0.1095219678802522</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2445632318667466</v>
+        <v>0.2447039879807677</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>51642</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47113</v>
+        <v>47076</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>54189</v>
+        <v>54274</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9368692196872221</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8547093985681866</v>
+        <v>0.8540388304074397</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9830774427302921</v>
+        <v>0.9846073282159828</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -1487,19 +1487,19 @@
         <v>55712</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47817</v>
+        <v>48476</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62292</v>
+        <v>63054</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7496887961834454</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6434509321708483</v>
+        <v>0.6523199093885422</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.838233362954413</v>
+        <v>0.8484975387633837</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>115</v>
@@ -1508,19 +1508,19 @@
         <v>107355</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>97781</v>
+        <v>97762</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>114443</v>
+        <v>115260</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8294024685420796</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7554367681332541</v>
+        <v>0.7552960120192324</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8841630471303445</v>
+        <v>0.8904780321197477</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>6885</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3294</v>
+        <v>3385</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11785</v>
+        <v>11648</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2346190186811404</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1122331677240495</v>
+        <v>0.1153298776566087</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4015700815760653</v>
+        <v>0.3968997120702285</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1633,19 +1633,19 @@
         <v>12857</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6633</v>
+        <v>7449</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18943</v>
+        <v>19708</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3117235265346593</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1608047685583196</v>
+        <v>0.1805914635810077</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.45927130905714</v>
+        <v>0.4778182962168012</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1654,19 +1654,19 @@
         <v>19743</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13319</v>
+        <v>12671</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28276</v>
+        <v>28187</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.279669420250056</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1886754883437116</v>
+        <v>0.1794980237910107</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4005428411467699</v>
+        <v>0.3992958917978565</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>22462</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17562</v>
+        <v>17699</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26053</v>
+        <v>25962</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7653809813188596</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5984299184239347</v>
+        <v>0.6031002879297716</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8877668322759505</v>
+        <v>0.8846701223433913</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -1704,19 +1704,19 @@
         <v>28389</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22303</v>
+        <v>21538</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34613</v>
+        <v>33797</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6882764734653407</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.54072869094286</v>
+        <v>0.5221817037831984</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8391952314416804</v>
+        <v>0.8194085364189923</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>53</v>
@@ -1725,19 +1725,19 @@
         <v>50850</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42317</v>
+        <v>42406</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>57274</v>
+        <v>57922</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7203305797499441</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5994571588532303</v>
+        <v>0.6007041082021436</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8113245116562884</v>
+        <v>0.8205019762089892</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>6544</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2776</v>
+        <v>2695</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11419</v>
+        <v>11277</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1386519189639363</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0588132697175832</v>
+        <v>0.05711287109771182</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2419570933984704</v>
+        <v>0.2389391128979</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -1850,19 +1850,19 @@
         <v>14094</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8660</v>
+        <v>8173</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23096</v>
+        <v>22241</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2004531218473379</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1231706888781674</v>
+        <v>0.1162469868958863</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3284989467250317</v>
+        <v>0.3163338659506224</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -1871,19 +1871,19 @@
         <v>20638</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12880</v>
+        <v>13387</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>30513</v>
+        <v>30901</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1756304577070809</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.109614696037374</v>
+        <v>0.11392993708536</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.259675164715627</v>
+        <v>0.262974735032329</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>40652</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>35777</v>
+        <v>35919</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>44420</v>
+        <v>44501</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8613480810360636</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7580429066015295</v>
+        <v>0.7610608871021</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9411867302824167</v>
+        <v>0.9428871289022882</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>55</v>
@@ -1921,19 +1921,19 @@
         <v>56215</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47213</v>
+        <v>48068</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>61649</v>
+        <v>62136</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7995468781526621</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6715010532749685</v>
+        <v>0.6836661340493778</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8768293111218326</v>
+        <v>0.8837530131041138</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>97</v>
@@ -1942,19 +1942,19 @@
         <v>96868</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>86993</v>
+        <v>86605</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>104626</v>
+        <v>104119</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.824369542292919</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7403248352843731</v>
+        <v>0.737025264967671</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8903853039626261</v>
+        <v>0.88607006291464</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>8710</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4184</v>
+        <v>4228</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15924</v>
+        <v>14954</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0822289932123175</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03949497421123987</v>
+        <v>0.03991798544543585</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1503253839659442</v>
+        <v>0.1411699917673743</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2067,19 +2067,19 @@
         <v>14114</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8258</v>
+        <v>8140</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22393</v>
+        <v>22771</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1205072864418412</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0705076778403257</v>
+        <v>0.0695023096267631</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1911940802777185</v>
+        <v>0.1944263934981689</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -2088,19 +2088,19 @@
         <v>22824</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14521</v>
+        <v>14836</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31939</v>
+        <v>33393</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1023285983273821</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06510229169030067</v>
+        <v>0.06651601366841306</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1431930101403783</v>
+        <v>0.1497130237616395</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>97218</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>90004</v>
+        <v>90974</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>101744</v>
+        <v>101700</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9177710067876825</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.849674616034056</v>
+        <v>0.8588300082326258</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9605050257887603</v>
+        <v>0.9600820145545644</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>103</v>
@@ -2138,19 +2138,19 @@
         <v>103007</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>94728</v>
+        <v>94350</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>108863</v>
+        <v>108981</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8794927135581588</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8088059197222814</v>
+        <v>0.8055736065018311</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9294923221596739</v>
+        <v>0.9304976903732368</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>202</v>
@@ -2159,19 +2159,19 @@
         <v>200225</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>191110</v>
+        <v>189656</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>208528</v>
+        <v>208213</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8976714016726178</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8568069898596217</v>
+        <v>0.8502869762383604</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9348977083096993</v>
+        <v>0.933483986331587</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>26146</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17881</v>
+        <v>17711</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34708</v>
+        <v>35798</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2336667836518176</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1598042729071703</v>
+        <v>0.1582859324815932</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3101906976720684</v>
+        <v>0.319931853201439</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -2284,19 +2284,19 @@
         <v>40052</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29902</v>
+        <v>30240</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>51666</v>
+        <v>53157</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2613922022662664</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1951513909844171</v>
+        <v>0.1973565088576339</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3371921925133824</v>
+        <v>0.3469236213847776</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>63</v>
@@ -2305,19 +2305,19 @@
         <v>66198</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>52598</v>
+        <v>53668</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83686</v>
+        <v>82713</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.249690720810492</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1983941161300206</v>
+        <v>0.2024290419846447</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.315654056443027</v>
+        <v>0.3119861822242709</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>85747</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>77185</v>
+        <v>76095</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>94012</v>
+        <v>94182</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7663332163481824</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6898093023279316</v>
+        <v>0.6800681467985605</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8401957270928297</v>
+        <v>0.8417140675184065</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>109</v>
@@ -2355,19 +2355,19 @@
         <v>113173</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>101559</v>
+        <v>100068</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>123323</v>
+        <v>122985</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7386077977337335</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6628078074866175</v>
+        <v>0.6530763786152223</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8048486090155829</v>
+        <v>0.802643491142366</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>197</v>
@@ -2376,19 +2376,19 @@
         <v>198920</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>181432</v>
+        <v>182405</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>212520</v>
+        <v>211450</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7503092791895081</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6843459435569728</v>
+        <v>0.6880138177757289</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8016058838699793</v>
+        <v>0.7975709580153554</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>67014</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>52118</v>
+        <v>54795</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>81411</v>
+        <v>83796</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1333705332244771</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1037247057035059</v>
+        <v>0.1090521764672224</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1620223175132444</v>
+        <v>0.166770214699991</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>127</v>
@@ -2501,19 +2501,19 @@
         <v>137903</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>117735</v>
+        <v>118432</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>161976</v>
+        <v>162406</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.203745126112127</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1739478288141547</v>
+        <v>0.1749780444567464</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2393108578827693</v>
+        <v>0.2399460325688745</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>199</v>
@@ -2522,19 +2522,19 @@
         <v>204917</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>180645</v>
+        <v>178469</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>232434</v>
+        <v>230777</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.173760728081598</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1531785390248151</v>
+        <v>0.1513335345831459</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1970931828606378</v>
+        <v>0.1956882480524964</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>435452</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>421055</v>
+        <v>418670</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>450348</v>
+        <v>447671</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.866629466775523</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8379776824867556</v>
+        <v>0.833229785300009</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8962752942964941</v>
+        <v>0.8909478235327777</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>534</v>
@@ -2572,19 +2572,19 @@
         <v>538939</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>514866</v>
+        <v>514436</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>559107</v>
+        <v>558410</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.796254873887873</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7606891421172306</v>
+        <v>0.7600539674311256</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8260521711858452</v>
+        <v>0.8250219555432539</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>985</v>
@@ -2593,19 +2593,19 @@
         <v>974391</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>946874</v>
+        <v>948531</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>998663</v>
+        <v>1000839</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.826239271918402</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8029068171393622</v>
+        <v>0.8043117519475036</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8468214609751848</v>
+        <v>0.8486664654168541</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>9634</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4881</v>
+        <v>5224</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16049</v>
+        <v>16430</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2175555391508464</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.11022086818981</v>
+        <v>0.1179658335433214</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3624456628100189</v>
+        <v>0.3710334840531497</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -2962,19 +2962,19 @@
         <v>26194</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19534</v>
+        <v>18087</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33252</v>
+        <v>33094</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5357216561085718</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3995148556670267</v>
+        <v>0.3699173655318354</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6800767616689359</v>
+        <v>0.6768432990648421</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -2983,19 +2983,19 @@
         <v>35827</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27241</v>
+        <v>26098</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46238</v>
+        <v>45564</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3845152425670053</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2923617018623713</v>
+        <v>0.2800956315620436</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4962539065649998</v>
+        <v>0.4890149258792302</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>34647</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28232</v>
+        <v>27851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39400</v>
+        <v>39057</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7824444608491536</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.637554337189981</v>
+        <v>0.62896651594685</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.88977913181019</v>
+        <v>0.8820341664566786</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -3033,19 +3033,19 @@
         <v>22700</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15642</v>
+        <v>15800</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29360</v>
+        <v>30807</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4642783438914282</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3199232383310641</v>
+        <v>0.323156700935158</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6004851443329733</v>
+        <v>0.6300826344681645</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -3054,19 +3054,19 @@
         <v>57348</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>46937</v>
+        <v>47611</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>65934</v>
+        <v>67077</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6154847574329947</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5037460934350002</v>
+        <v>0.51098507412077</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.707638298137629</v>
+        <v>0.7199043684379564</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>18381</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9999</v>
+        <v>9856</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28024</v>
+        <v>27609</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2320733890362024</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1262400392611134</v>
+        <v>0.1244412242570846</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3538310760886187</v>
+        <v>0.3485908453183452</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -3179,19 +3179,19 @@
         <v>37942</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27751</v>
+        <v>29003</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49440</v>
+        <v>48278</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3716367221141673</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2718199726775193</v>
+        <v>0.2840847767356557</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4842650912018794</v>
+        <v>0.4728800208783435</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -3200,19 +3200,19 @@
         <v>56322</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44290</v>
+        <v>44821</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71054</v>
+        <v>70567</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3106656731801675</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2442946885355964</v>
+        <v>0.2472264696703483</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3919252163827077</v>
+        <v>0.3892359986940617</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>60822</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>51179</v>
+        <v>51594</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>69204</v>
+        <v>69347</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7679266109637976</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6461689239113814</v>
+        <v>0.6514091546816547</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8737599607388866</v>
+        <v>0.8755587757429151</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>59</v>
@@ -3250,19 +3250,19 @@
         <v>64151</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52653</v>
+        <v>53815</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>74342</v>
+        <v>73090</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6283632778858327</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5157349087981206</v>
+        <v>0.5271199791216564</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7281800273224807</v>
+        <v>0.7159152232643443</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>115</v>
@@ -3271,19 +3271,19 @@
         <v>124974</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>110242</v>
+        <v>110729</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>137006</v>
+        <v>136475</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6893343268198325</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6080747836172926</v>
+        <v>0.6107640013059388</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7557053114644039</v>
+        <v>0.7527735303296519</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>11287</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5244</v>
+        <v>6184</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18672</v>
+        <v>19196</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2024804794505264</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09407596121986207</v>
+        <v>0.1109370429473161</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3349798846195852</v>
+        <v>0.344374739463616</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -3396,19 +3396,19 @@
         <v>21342</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12836</v>
+        <v>14450</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29163</v>
+        <v>29974</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2668849582618567</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1605128068072949</v>
+        <v>0.1807028567006222</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3646842109628364</v>
+        <v>0.3748266692523158</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -3417,19 +3417,19 @@
         <v>32629</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22558</v>
+        <v>23994</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43956</v>
+        <v>44813</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2404311766119613</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1662199991292069</v>
+        <v>0.1768051522669895</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.323893208325891</v>
+        <v>0.33021312649743</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>44455</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>37070</v>
+        <v>36546</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>50498</v>
+        <v>49558</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7975195205494736</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6650201153804161</v>
+        <v>0.6556252605363834</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9059240387801381</v>
+        <v>0.8890629570526839</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -3467,19 +3467,19 @@
         <v>58626</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50805</v>
+        <v>49994</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>67132</v>
+        <v>65518</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7331150417381433</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6353157890371637</v>
+        <v>0.6251733307476843</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.839487193192705</v>
+        <v>0.8192971432993779</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>98</v>
@@ -3488,19 +3488,19 @@
         <v>103081</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>91754</v>
+        <v>90897</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>113152</v>
+        <v>111716</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7595688233880388</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.676106791674109</v>
+        <v>0.66978687350257</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8337800008707928</v>
+        <v>0.8231948477330119</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>12829</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7198</v>
+        <v>7231</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20080</v>
+        <v>19703</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2003640130254464</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1124209393518281</v>
+        <v>0.1129392550543016</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3136185667446065</v>
+        <v>0.3077260482540953</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -3613,19 +3613,19 @@
         <v>29089</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20784</v>
+        <v>21125</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38533</v>
+        <v>39201</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3399251799980494</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2428825845344877</v>
+        <v>0.2468659411333779</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4502839127991657</v>
+        <v>0.458090223572965</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -3634,19 +3634,19 @@
         <v>41918</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31640</v>
+        <v>31861</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53893</v>
+        <v>52967</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2801948400338768</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2114950026583747</v>
+        <v>0.2129725423378321</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3602391907913211</v>
+        <v>0.3540553364106046</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>51199</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43948</v>
+        <v>44325</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56830</v>
+        <v>56797</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7996359869745536</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6863814332553939</v>
+        <v>0.6922739517459047</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8875790606481718</v>
+        <v>0.8870607449456984</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -3684,19 +3684,19 @@
         <v>56485</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47041</v>
+        <v>46373</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>64790</v>
+        <v>64449</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6600748200019506</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5497160872008341</v>
+        <v>0.541909776427035</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7571174154655124</v>
+        <v>0.7531340588666221</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>101</v>
@@ -3705,19 +3705,19 @@
         <v>107684</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>95709</v>
+        <v>96635</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>117962</v>
+        <v>117741</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7198051599661232</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6397608092086789</v>
+        <v>0.6459446635893956</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7885049973416254</v>
+        <v>0.7870274576621681</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>6705</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3039</v>
+        <v>2385</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11957</v>
+        <v>13044</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2121177517543791</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09614244432473182</v>
+        <v>0.07544064711585929</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3782533166349576</v>
+        <v>0.4126428728713586</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -3830,19 +3830,19 @@
         <v>22472</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15357</v>
+        <v>15688</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29407</v>
+        <v>29485</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4507520325833795</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3080308956104474</v>
+        <v>0.3146667214368036</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5898475914652074</v>
+        <v>0.5914184811920905</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -3851,19 +3851,19 @@
         <v>29178</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20916</v>
+        <v>20527</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38021</v>
+        <v>38868</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3581531256289215</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2567394312576119</v>
+        <v>0.2519647748037381</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4667059118670071</v>
+        <v>0.4770988048587932</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>24907</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19655</v>
+        <v>18568</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28573</v>
+        <v>29227</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7878822482456209</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6217466833650414</v>
+        <v>0.5873571271286415</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9038575556752682</v>
+        <v>0.9245593528841407</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -3901,19 +3901,19 @@
         <v>27383</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20448</v>
+        <v>20370</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34498</v>
+        <v>34167</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5492479674166205</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4101524085347926</v>
+        <v>0.4085815188079095</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6919691043895524</v>
+        <v>0.6853332785631966</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>48</v>
@@ -3922,19 +3922,19 @@
         <v>52289</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>43446</v>
+        <v>42599</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>60551</v>
+        <v>60940</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6418468743710785</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5332940881329929</v>
+        <v>0.5229011951412068</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7432605687423882</v>
+        <v>0.7480352251962619</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>13816</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8479</v>
+        <v>8418</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21019</v>
+        <v>20451</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2669508401218154</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1638265212466892</v>
+        <v>0.1626429011272549</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4061155496445126</v>
+        <v>0.3951389798759934</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -4047,19 +4047,19 @@
         <v>20195</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12862</v>
+        <v>12857</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28475</v>
+        <v>28306</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2876347483036397</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1831823304951624</v>
+        <v>0.183115019698446</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4055599367036753</v>
+        <v>0.4031495808950509</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -4068,19 +4068,19 @@
         <v>34012</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24614</v>
+        <v>24711</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45285</v>
+        <v>44484</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2788576897519249</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2018079761802839</v>
+        <v>0.2026054166239322</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3712867597341286</v>
+        <v>0.3647213513011748</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>37940</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30737</v>
+        <v>31305</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>43277</v>
+        <v>43338</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7330491598781845</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5938844503554873</v>
+        <v>0.6048610201240072</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8361734787533108</v>
+        <v>0.837357098872745</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>50</v>
@@ -4118,19 +4118,19 @@
         <v>50017</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>41737</v>
+        <v>41906</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>57350</v>
+        <v>57355</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7123652516963603</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5944400632963249</v>
+        <v>0.5968504191049493</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8168176695048377</v>
+        <v>0.816884980301554</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>87</v>
@@ -4139,19 +4139,19 @@
         <v>87956</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>76683</v>
+        <v>77484</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>97354</v>
+        <v>97257</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7211423102480751</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6287132402658705</v>
+        <v>0.6352786486988252</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7981920238197159</v>
+        <v>0.7973945833760669</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>20701</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13321</v>
+        <v>13484</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31637</v>
+        <v>31319</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1843970062441559</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1186544277777605</v>
+        <v>0.120107203491222</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2818092417004197</v>
+        <v>0.2789747653468077</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -4264,19 +4264,19 @@
         <v>38504</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27536</v>
+        <v>28234</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50691</v>
+        <v>51111</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.271230143875776</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1939657502695632</v>
+        <v>0.1988820098025166</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3570726519014139</v>
+        <v>0.3600357169572397</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>52</v>
@@ -4285,19 +4285,19 @@
         <v>59206</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>45414</v>
+        <v>45663</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74057</v>
+        <v>74346</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2328855935117626</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1786355649999439</v>
+        <v>0.1796138851202996</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2913052982988381</v>
+        <v>0.2924396256811606</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>91562</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>80626</v>
+        <v>80944</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>98942</v>
+        <v>98779</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8156029937558441</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7181907582995803</v>
+        <v>0.7210252346531922</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8813455722222396</v>
+        <v>0.8798927965087779</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>95</v>
@@ -4335,19 +4335,19 @@
         <v>103458</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>91271</v>
+        <v>90851</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>114426</v>
+        <v>113728</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.728769856124224</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6429273480985864</v>
+        <v>0.6399642830427604</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8060342497304369</v>
+        <v>0.8011179901974833</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>177</v>
@@ -4356,19 +4356,19 @@
         <v>195020</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>180169</v>
+        <v>179880</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>208812</v>
+        <v>208563</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7671144064882375</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7086947017011623</v>
+        <v>0.7075603743188397</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8213644350000567</v>
+        <v>0.8203861148797005</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>12034</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6539</v>
+        <v>6452</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21003</v>
+        <v>21768</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09966179709903573</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05415087941056914</v>
+        <v>0.05343049808204844</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1739336606256507</v>
+        <v>0.1802664084643666</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -4481,19 +4481,19 @@
         <v>38652</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27301</v>
+        <v>28315</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50111</v>
+        <v>51738</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2350834411124905</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1660458627698944</v>
+        <v>0.1722128982988158</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.304781596518942</v>
+        <v>0.3146767273456871</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>45</v>
@@ -4502,19 +4502,19 @@
         <v>50686</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>38002</v>
+        <v>38737</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>64632</v>
+        <v>66067</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1777403638037374</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1332618037442542</v>
+        <v>0.1358388943477038</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2266432136036397</v>
+        <v>0.2316782857014489</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>108718</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>99749</v>
+        <v>98984</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>114213</v>
+        <v>114300</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9003382029009642</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8260663393743493</v>
+        <v>0.8197335915356336</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9458491205894308</v>
+        <v>0.9465695019179516</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>116</v>
@@ -4552,19 +4552,19 @@
         <v>125765</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>114306</v>
+        <v>112679</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>137116</v>
+        <v>136102</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7649165588875095</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6952184034810569</v>
+        <v>0.6853232726543127</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8339541372301051</v>
+        <v>0.8277871017011839</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>212</v>
@@ -4573,19 +4573,19 @@
         <v>234483</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>220537</v>
+        <v>219102</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>247167</v>
+        <v>246432</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8222596361962626</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7733567863963605</v>
+        <v>0.7683217142985513</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8667381962557458</v>
+        <v>0.8641611056522963</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>105387</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>86868</v>
+        <v>86271</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>126408</v>
+        <v>126219</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1883133287584055</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1552220075980543</v>
+        <v>0.1541556883794856</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2258754894346823</v>
+        <v>0.2255376232233162</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>216</v>
@@ -4698,19 +4698,19 @@
         <v>234390</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>208707</v>
+        <v>207341</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>261305</v>
+        <v>259365</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3154747453440803</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2809067922075277</v>
+        <v>0.2790691775635055</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3517002634050367</v>
+        <v>0.3490904160434973</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>308</v>
@@ -4719,19 +4719,19 @@
         <v>339777</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>309584</v>
+        <v>311382</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>376026</v>
+        <v>373171</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2608427932215529</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2376637631065261</v>
+        <v>0.2390441520098748</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2886708421729258</v>
+        <v>0.2864789331249478</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>454250</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>433229</v>
+        <v>433418</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>472769</v>
+        <v>473366</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8116866712415944</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7741245105653179</v>
+        <v>0.7744623767766836</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8447779924019457</v>
+        <v>0.8458443116205143</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>478</v>
@@ -4769,19 +4769,19 @@
         <v>508585</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>481670</v>
+        <v>483610</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>534268</v>
+        <v>535634</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6845252546559197</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6482997365949633</v>
+        <v>0.6509095839565027</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7190932077924722</v>
+        <v>0.7209308224364944</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>890</v>
@@ -4790,19 +4790,19 @@
         <v>962835</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>926586</v>
+        <v>929441</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>993028</v>
+        <v>991230</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7391572067784471</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7113291578270742</v>
+        <v>0.7135210668750521</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7623362368934739</v>
+        <v>0.7609558479901252</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>9932</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5058</v>
+        <v>5639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15056</v>
+        <v>15399</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2553505172042912</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.130039315460683</v>
+        <v>0.1449773189350422</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3870870968531223</v>
+        <v>0.395908737528249</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -5159,19 +5159,19 @@
         <v>22616</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14986</v>
+        <v>15216</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30312</v>
+        <v>29869</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4579036948077211</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.303411585241178</v>
+        <v>0.3080746699356842</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6137092171044399</v>
+        <v>0.6047519271528796</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -5180,19 +5180,19 @@
         <v>32548</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23510</v>
+        <v>23849</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41738</v>
+        <v>42375</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3686664537622075</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.266287445235623</v>
+        <v>0.2701293393053639</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4727487157856252</v>
+        <v>0.4799727756025291</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>28964</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23840</v>
+        <v>23497</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33838</v>
+        <v>33257</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7446494827957088</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6129129031468776</v>
+        <v>0.604091262471751</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8699606845393171</v>
+        <v>0.8550226810649578</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -5230,19 +5230,19 @@
         <v>26775</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19079</v>
+        <v>19522</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34405</v>
+        <v>34175</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5420963051922788</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3862907828955603</v>
+        <v>0.3952480728471204</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6965884147588222</v>
+        <v>0.6919253300643159</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -5251,19 +5251,19 @@
         <v>55739</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>46549</v>
+        <v>45912</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>64777</v>
+        <v>64438</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6313335462377925</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5272512842143749</v>
+        <v>0.5200272243974707</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.733712554764377</v>
+        <v>0.7298706606946361</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>6349</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2684</v>
+        <v>2905</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12398</v>
+        <v>12510</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07273487060003868</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03074073969421698</v>
+        <v>0.03328233028867643</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.142024441162815</v>
+        <v>0.143307061863205</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -5376,19 +5376,19 @@
         <v>33012</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22344</v>
+        <v>22525</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43341</v>
+        <v>44430</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2864962499000623</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1939141279518605</v>
+        <v>0.1954858560277525</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3761292696206876</v>
+        <v>0.3855875575013286</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -5397,19 +5397,19 @@
         <v>39362</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28110</v>
+        <v>27708</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52583</v>
+        <v>51658</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1943572230624059</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1388004918392897</v>
+        <v>0.1368135831866434</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2596401963391878</v>
+        <v>0.2550724685442634</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>80946</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>74897</v>
+        <v>74785</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>84611</v>
+        <v>84390</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9272651293999613</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.857975558837185</v>
+        <v>0.8566929381367954</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9692592603057829</v>
+        <v>0.9667176697113237</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>70</v>
@@ -5447,19 +5447,19 @@
         <v>82216</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>71887</v>
+        <v>70798</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92884</v>
+        <v>92703</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7135037500999376</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6238707303793124</v>
+        <v>0.6144124424986707</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8060858720481395</v>
+        <v>0.8045141439722475</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>153</v>
@@ -5468,19 +5468,19 @@
         <v>163161</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>149940</v>
+        <v>150865</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>174413</v>
+        <v>174815</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8056427769375941</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7403598036608118</v>
+        <v>0.7449275314557371</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8611995081607102</v>
+        <v>0.8631864168133571</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>8219</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4297</v>
+        <v>4179</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14613</v>
+        <v>13837</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1293397253348684</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06761389909817991</v>
+        <v>0.06576905470748838</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2299540058366479</v>
+        <v>0.2177540539340243</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -5593,19 +5593,19 @@
         <v>12980</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6887</v>
+        <v>6685</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21133</v>
+        <v>21928</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1624557115200242</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0862047306555333</v>
+        <v>0.08366696798450454</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2645031320031471</v>
+        <v>0.2744535407465732</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -5614,19 +5614,19 @@
         <v>21199</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13704</v>
+        <v>13820</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31192</v>
+        <v>32161</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1477851495592813</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09553698539277486</v>
+        <v>0.09634643560240191</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2174501972670185</v>
+        <v>0.2242087621502783</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>55327</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>48933</v>
+        <v>49709</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>59249</v>
+        <v>59367</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8706602746651316</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7700459941633524</v>
+        <v>0.7822459460659758</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9323861009018201</v>
+        <v>0.9342309452925123</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>59</v>
@@ -5664,19 +5664,19 @@
         <v>66917</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>58764</v>
+        <v>57969</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>73010</v>
+        <v>73212</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8375442884799758</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7354968679968531</v>
+        <v>0.7255464592534264</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9137952693444671</v>
+        <v>0.9163330320154954</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>121</v>
@@ -5685,19 +5685,19 @@
         <v>122244</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>112251</v>
+        <v>111282</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>129739</v>
+        <v>129623</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8522148504407187</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7825498027329812</v>
+        <v>0.7757912378497207</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9044630146072251</v>
+        <v>0.9036535643975979</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>14345</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9180</v>
+        <v>8857</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21947</v>
+        <v>21371</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.221679635771097</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1418530946328148</v>
+        <v>0.1368682322503969</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3391440583928801</v>
+        <v>0.3302428278747128</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -5810,19 +5810,19 @@
         <v>31721</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22738</v>
+        <v>22044</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41790</v>
+        <v>42716</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3463957779023247</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2483069338073735</v>
+        <v>0.2407226263957196</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4563478196438043</v>
+        <v>0.4664691403303143</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -5831,19 +5831,19 @@
         <v>46066</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35539</v>
+        <v>34971</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59215</v>
+        <v>58958</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2947557007565198</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2273962212844712</v>
+        <v>0.223765825808684</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3788901305799961</v>
+        <v>0.3772454080963931</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>50367</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42765</v>
+        <v>43341</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55532</v>
+        <v>55855</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7783203642289029</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6608559416071198</v>
+        <v>0.6697571721252871</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8581469053671851</v>
+        <v>0.8631317677496025</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>51</v>
@@ -5881,19 +5881,19 @@
         <v>59853</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49784</v>
+        <v>48858</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>68836</v>
+        <v>69530</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6536042220976752</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5436521803561953</v>
+        <v>0.5335308596696854</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7516930661926264</v>
+        <v>0.7592773736042804</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>106</v>
@@ -5902,19 +5902,19 @@
         <v>110219</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>97070</v>
+        <v>97327</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>120746</v>
+        <v>121314</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7052442992434802</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6211098694200039</v>
+        <v>0.6227545919036074</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7726037787155289</v>
+        <v>0.776234174191316</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>4118</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1608</v>
+        <v>1589</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9025</v>
+        <v>8468</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09784988998318822</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03821683229714558</v>
+        <v>0.03777153637870494</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2144738539286526</v>
+        <v>0.2012412598333008</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -6027,19 +6027,19 @@
         <v>21083</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14463</v>
+        <v>14124</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28857</v>
+        <v>28457</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4172201779836409</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2862120191216989</v>
+        <v>0.2795012381859682</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5710561974413787</v>
+        <v>0.5631400857891552</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -6048,19 +6048,19 @@
         <v>25201</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17070</v>
+        <v>16929</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34930</v>
+        <v>34521</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2721085766843875</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1843181950323632</v>
+        <v>0.182797229158092</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3771663466040361</v>
+        <v>0.3727491433750806</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>37962</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33055</v>
+        <v>33612</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40472</v>
+        <v>40491</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9021501100168118</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7855261460713476</v>
+        <v>0.7987587401666992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9617831677028544</v>
+        <v>0.9622284636212951</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -6098,19 +6098,19 @@
         <v>29449</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21675</v>
+        <v>22075</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36069</v>
+        <v>36408</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5827798220163591</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4289438025586214</v>
+        <v>0.4368599142108449</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7137879808783011</v>
+        <v>0.7204987618140318</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>70</v>
@@ -6119,19 +6119,19 @@
         <v>67411</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>57682</v>
+        <v>58091</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>75542</v>
+        <v>75683</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7278914233156125</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6228336533959633</v>
+        <v>0.6272508566249198</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8156818049676366</v>
+        <v>0.8172027708419083</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>13480</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8692</v>
+        <v>8279</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20218</v>
+        <v>19129</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2782390117902224</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1794182382051456</v>
+        <v>0.1708891414831597</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4173252511326327</v>
+        <v>0.3948518567359352</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -6244,19 +6244,19 @@
         <v>25637</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16384</v>
+        <v>17462</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33953</v>
+        <v>34930</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3804312765182387</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2431225512935584</v>
+        <v>0.2591243029783465</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5038365469247865</v>
+        <v>0.5183397211520303</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -6265,19 +6265,19 @@
         <v>39116</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>28633</v>
+        <v>29411</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49889</v>
+        <v>50490</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3376906647826763</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2471937055987871</v>
+        <v>0.2539104108163493</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4306935235258342</v>
+        <v>0.435883951353333</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>34966</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28228</v>
+        <v>29317</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39754</v>
+        <v>40167</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7217609882097775</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5826747488673673</v>
+        <v>0.6051481432640651</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8205817617948539</v>
+        <v>0.8291108585168403</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>39</v>
@@ -6315,19 +6315,19 @@
         <v>41751</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>33435</v>
+        <v>32458</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51004</v>
+        <v>49926</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6195687234817613</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4961634530752133</v>
+        <v>0.4816602788479696</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.756877448706441</v>
+        <v>0.7408756970216535</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>78</v>
@@ -6336,19 +6336,19 @@
         <v>76718</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>65945</v>
+        <v>65344</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>87201</v>
+        <v>86423</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6623093352173236</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.569306476474166</v>
+        <v>0.5641160486466669</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7528062944012134</v>
+        <v>0.7460895891836506</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>24781</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16803</v>
+        <v>16350</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34360</v>
+        <v>34238</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2208897717877877</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1497786563934109</v>
+        <v>0.1457436914287581</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3062779965168245</v>
+        <v>0.305194210837233</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>48</v>
@@ -6461,19 +6461,19 @@
         <v>56970</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>44181</v>
+        <v>44069</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69585</v>
+        <v>68762</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3859106455325948</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2992780929299296</v>
+        <v>0.2985170992009104</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4713632107645492</v>
+        <v>0.4657900445913343</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -6482,19 +6482,19 @@
         <v>81751</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>67510</v>
+        <v>65526</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>100220</v>
+        <v>96891</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.314654988329869</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2598430039622944</v>
+        <v>0.2522087621201153</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.385745245937173</v>
+        <v>0.3729283234227399</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>87404</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>77825</v>
+        <v>77947</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>95382</v>
+        <v>95835</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7791102282122123</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6937220034831755</v>
+        <v>0.694805789162767</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8502213436065891</v>
+        <v>0.854256308571242</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>77</v>
@@ -6532,19 +6532,19 @@
         <v>90655</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>78040</v>
+        <v>78863</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>103444</v>
+        <v>103556</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6140893544674052</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.528636789235451</v>
+        <v>0.5342099554086656</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7007219070700704</v>
+        <v>0.7014829007990895</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>162</v>
@@ -6553,19 +6553,19 @@
         <v>178059</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>159590</v>
+        <v>162919</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>192300</v>
+        <v>194284</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.685345011670131</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.614254754062827</v>
+        <v>0.6270716765772602</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7401569960377055</v>
+        <v>0.7477912378798857</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>19405</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12219</v>
+        <v>12678</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28117</v>
+        <v>28566</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1446345706614846</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09107346596568436</v>
+        <v>0.09449499434657081</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2095659088808252</v>
+        <v>0.2129100178853247</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -6678,19 +6678,19 @@
         <v>36191</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26536</v>
+        <v>25064</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50643</v>
+        <v>49067</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2052829401971169</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1505177197139035</v>
+        <v>0.1421716961665516</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2872604458057572</v>
+        <v>0.2783186863806536</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>48</v>
@@ -6699,19 +6699,19 @@
         <v>55596</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>41026</v>
+        <v>42468</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>72686</v>
+        <v>72996</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1790735852586528</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1321431818286184</v>
+        <v>0.1367898621400902</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2341204727925134</v>
+        <v>0.2351175906201411</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>114763</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>106051</v>
+        <v>105602</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>121949</v>
+        <v>121490</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8553654293385153</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.790434091119175</v>
+        <v>0.7870899821146754</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9089265340343158</v>
+        <v>0.9055050056534293</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>114</v>
@@ -6749,19 +6749,19 @@
         <v>140106</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>125654</v>
+        <v>127230</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>149761</v>
+        <v>151233</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7947170598028831</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7127395541942427</v>
+        <v>0.7216813136193462</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8494822802860965</v>
+        <v>0.8578283038334481</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>235</v>
@@ -6770,19 +6770,19 @@
         <v>254869</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>237779</v>
+        <v>237469</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>269439</v>
+        <v>267997</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8209264147413472</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7658795272074866</v>
+        <v>0.7648824093798587</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8678568181713817</v>
+        <v>0.8632101378599097</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>100629</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>81899</v>
+        <v>84468</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>117316</v>
+        <v>118358</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1701741720197465</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1385003002099361</v>
+        <v>0.1428452591894323</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1983937882390514</v>
+        <v>0.2001554405694869</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>193</v>
@@ -6895,19 +6895,19 @@
         <v>240209</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>214293</v>
+        <v>214616</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>266598</v>
+        <v>269360</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.308779593374607</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2754652111684676</v>
+        <v>0.2758804875720276</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3427012662500459</v>
+        <v>0.3462514894462421</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>303</v>
@@ -6916,19 +6916,19 @@
         <v>340838</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>307894</v>
+        <v>309006</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>373452</v>
+        <v>373905</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.248921475608498</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2248616582944365</v>
+        <v>0.2256736218239512</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2727404514158015</v>
+        <v>0.2730707726531796</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>490699</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>474012</v>
+        <v>472970</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>509429</v>
+        <v>506860</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8298258279802535</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8016062117609483</v>
+        <v>0.7998445594305126</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8614996997900637</v>
+        <v>0.8571547408105674</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>462</v>
@@ -6966,19 +6966,19 @@
         <v>537722</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>511333</v>
+        <v>508571</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>563638</v>
+        <v>563315</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.691220406625393</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6572987337499544</v>
+        <v>0.6537485105537576</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7245347888315323</v>
+        <v>0.7241195124279722</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>979</v>
@@ -6987,19 +6987,19 @@
         <v>1028421</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>995807</v>
+        <v>995354</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1061365</v>
+        <v>1060253</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.751078524391502</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7272595485841984</v>
+        <v>0.7269292273468205</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7751383417055634</v>
+        <v>0.7743263781760488</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>6718</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3565</v>
+        <v>3380</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11760</v>
+        <v>11919</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1102183403128828</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05848045691755693</v>
+        <v>0.05544840701966921</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1929247321943947</v>
+        <v>0.1955337198386931</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -7356,19 +7356,19 @@
         <v>14307</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10065</v>
+        <v>10056</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19891</v>
+        <v>19624</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2191742998665444</v>
+        <v>0.2191742998665445</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1541876996785784</v>
+        <v>0.1540537619958835</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3047290822984554</v>
+        <v>0.3006361045325562</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -7377,19 +7377,19 @@
         <v>21025</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15488</v>
+        <v>15576</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29490</v>
+        <v>29214</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1665613618692081</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1226977415983133</v>
+        <v>0.1233912760729925</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2336182866392403</v>
+        <v>0.2314363328426224</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>54237</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49195</v>
+        <v>49036</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57390</v>
+        <v>57575</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8897816596871172</v>
+        <v>0.8897816596871171</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8070752678056052</v>
+        <v>0.8044662801613068</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.941519543082443</v>
+        <v>0.9445515929803309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>106</v>
@@ -7427,19 +7427,19 @@
         <v>50969</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>45385</v>
+        <v>45652</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>55211</v>
+        <v>55220</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7808257001334554</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6952709177015443</v>
+        <v>0.6993638954674438</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8458123003214216</v>
+        <v>0.8459462380041165</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>180</v>
@@ -7448,19 +7448,19 @@
         <v>105206</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>96741</v>
+        <v>97017</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>110743</v>
+        <v>110655</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8334386381307918</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7663817133607599</v>
+        <v>0.7685636671573776</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8773022584016865</v>
+        <v>0.8766087239270075</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>14983</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9346</v>
+        <v>9366</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22602</v>
+        <v>22500</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1695406659621594</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1057551874612912</v>
+        <v>0.1059804683465904</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2557624515145833</v>
+        <v>0.2546060177097216</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>78</v>
@@ -7573,19 +7573,19 @@
         <v>49018</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40384</v>
+        <v>40304</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57933</v>
+        <v>57710</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.363851105830819</v>
+        <v>0.3638511058308189</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2997624265681095</v>
+        <v>0.2991716240447338</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4300260023186691</v>
+        <v>0.4283749232976259</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -7594,19 +7594,19 @@
         <v>64000</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52721</v>
+        <v>53941</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75671</v>
+        <v>76929</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2868793116796745</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2363190987481107</v>
+        <v>0.2417878311885746</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3391909257388308</v>
+        <v>0.3448310816737303</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>73390</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>65771</v>
+        <v>65873</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79027</v>
+        <v>79007</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8304593340378406</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7442375484854168</v>
+        <v>0.7453939822902783</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8942448125387087</v>
+        <v>0.8940195316534096</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>144</v>
@@ -7644,19 +7644,19 @@
         <v>85701</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>76786</v>
+        <v>77009</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>94335</v>
+        <v>94415</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6361488941691811</v>
+        <v>0.636148894169181</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5699739976813308</v>
+        <v>0.5716250767023739</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7002375734318902</v>
+        <v>0.7008283759552661</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>223</v>
@@ -7665,19 +7665,19 @@
         <v>159092</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>147421</v>
+        <v>146163</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>170371</v>
+        <v>169151</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7131206883203255</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6608090742611691</v>
+        <v>0.6551689183262697</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7636809012518893</v>
+        <v>0.7582121688114253</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>21917</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16596</v>
+        <v>16588</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28372</v>
+        <v>28089</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.303204561502001</v>
+        <v>0.3032045615020009</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2295928511560891</v>
+        <v>0.2294777930108763</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3925005099289056</v>
+        <v>0.3885831025318787</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -7790,19 +7790,19 @@
         <v>39693</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33483</v>
+        <v>33294</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46217</v>
+        <v>46210</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4721702705755686</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3982920534621477</v>
+        <v>0.396041565378727</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5497753891712228</v>
+        <v>0.5496897972497147</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>117</v>
@@ -7814,16 +7814,16 @@
         <v>53032</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70835</v>
+        <v>70566</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3940533235591325</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3391850279330907</v>
+        <v>0.339187574678656</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4530492374985894</v>
+        <v>0.4513295122189516</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>50368</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>43913</v>
+        <v>44196</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>55689</v>
+        <v>55697</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6967954384979992</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6074994900710945</v>
+        <v>0.6114168974681209</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7704071488439109</v>
+        <v>0.7705222069891235</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>87</v>
@@ -7861,19 +7861,19 @@
         <v>44373</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>37849</v>
+        <v>37856</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>50583</v>
+        <v>50772</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5278297294244315</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4502246108287774</v>
+        <v>0.4503102027502852</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6017079465378524</v>
+        <v>0.6039584346212732</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>171</v>
@@ -7882,19 +7882,19 @@
         <v>94740</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>85516</v>
+        <v>85785</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>103319</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6059466764408674</v>
+        <v>0.6059466764408673</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5469507625014105</v>
+        <v>0.5486704877810484</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6608149720669091</v>
+        <v>0.660812425321344</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>15002</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10015</v>
+        <v>10583</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21171</v>
+        <v>21999</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.180402442768844</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1204365436728142</v>
+        <v>0.1272613041143175</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2545928323213308</v>
+        <v>0.2645549427057369</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -8007,19 +8007,19 @@
         <v>32688</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27214</v>
+        <v>26489</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39558</v>
+        <v>38872</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.29580668123012</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2462739272754838</v>
+        <v>0.2397132711062228</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3579811683767105</v>
+        <v>0.3517696207483075</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -8028,19 +8028,19 @@
         <v>47689</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>39296</v>
+        <v>39179</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56242</v>
+        <v>56370</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.246252913072348</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2029118434247352</v>
+        <v>0.202306958263703</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2904144215589601</v>
+        <v>0.2910769889812928</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>68154</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61985</v>
+        <v>61157</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>73141</v>
+        <v>72573</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.819597557231156</v>
+        <v>0.8195975572311559</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7454071676786691</v>
+        <v>0.7354450572942625</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8795634563271859</v>
+        <v>0.8727386958856823</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>181</v>
@@ -8078,19 +8078,19 @@
         <v>77816</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70946</v>
+        <v>71632</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>83290</v>
+        <v>84015</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.70419331876988</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6420188316232895</v>
+        <v>0.6482303792516926</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7537260727245162</v>
+        <v>0.7602867288937771</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>275</v>
@@ -8099,19 +8099,19 @@
         <v>145971</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>137418</v>
+        <v>137290</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154364</v>
+        <v>154481</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7537470869276521</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7095855784410394</v>
+        <v>0.7089230110187074</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7970881565752648</v>
+        <v>0.7976930417362972</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>10218</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6578</v>
+        <v>7033</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14335</v>
+        <v>14505</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2838262704331491</v>
+        <v>0.283826270433149</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1827186272401632</v>
+        <v>0.195366347898039</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3981950368439491</v>
+        <v>0.4028988808643044</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -8224,19 +8224,19 @@
         <v>20882</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16421</v>
+        <v>16325</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25844</v>
+        <v>25870</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3433442811870975</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2699939740537096</v>
+        <v>0.2684187530425883</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4249390629049339</v>
+        <v>0.4253578074964308</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>74</v>
@@ -8245,19 +8245,19 @@
         <v>31100</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24701</v>
+        <v>25428</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36966</v>
+        <v>37515</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3212133450369986</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2551266127378041</v>
+        <v>0.2626346255565445</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.381804609359591</v>
+        <v>0.3874700307091692</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>25783</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21666</v>
+        <v>21496</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29423</v>
+        <v>28968</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.716173729566851</v>
+        <v>0.7161737295668507</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6018049631560507</v>
+        <v>0.5971011191356955</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8172813727598368</v>
+        <v>0.804633652101961</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>109</v>
@@ -8295,19 +8295,19 @@
         <v>39937</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34975</v>
+        <v>34949</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44398</v>
+        <v>44494</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6566557188129024</v>
+        <v>0.6566557188129025</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5750609370950661</v>
+        <v>0.5746421925035693</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7300060259462903</v>
+        <v>0.7315812469574116</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>159</v>
@@ -8316,19 +8316,19 @@
         <v>65720</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>59854</v>
+        <v>59305</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>72119</v>
+        <v>71392</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6787866549630015</v>
+        <v>0.6787866549630016</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6181953906404091</v>
+        <v>0.6125299692908311</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7448733872621958</v>
+        <v>0.737365374443456</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>21910</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17443</v>
+        <v>17307</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27164</v>
+        <v>27121</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3638079687972742</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2896396038381061</v>
+        <v>0.2873745473546576</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4510510557145132</v>
+        <v>0.4503295641009751</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -8441,19 +8441,19 @@
         <v>34234</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29142</v>
+        <v>29300</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39683</v>
+        <v>39464</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5086116227987991</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4329651788045826</v>
+        <v>0.4353089268719462</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5895668941470594</v>
+        <v>0.5863069233899549</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>145</v>
@@ -8462,19 +8462,19 @@
         <v>56144</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48609</v>
+        <v>49799</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>62845</v>
+        <v>63197</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4402320147473343</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3811511751426709</v>
+        <v>0.3904789679793736</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4927757692486278</v>
+        <v>0.4955387656397719</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>38314</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33060</v>
+        <v>33103</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42781</v>
+        <v>42917</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6361920312027258</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5489489442854867</v>
+        <v>0.549670435899025</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7103603961618939</v>
+        <v>0.7126254526453426</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>83</v>
@@ -8512,19 +8512,19 @@
         <v>33075</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27626</v>
+        <v>27845</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38167</v>
+        <v>38009</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.491388377201201</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4104331058529405</v>
+        <v>0.4136930766100446</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5670348211954175</v>
+        <v>0.5646910731280539</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>167</v>
@@ -8533,19 +8533,19 @@
         <v>71388</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>64687</v>
+        <v>64335</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>78923</v>
+        <v>77733</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5597679852526656</v>
+        <v>0.5597679852526657</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5072242307513721</v>
+        <v>0.5044612343602279</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6188488248573287</v>
+        <v>0.6095210320206264</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>35403</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26558</v>
+        <v>26319</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45527</v>
+        <v>46698</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2354916789036983</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1766582983832697</v>
+        <v>0.1750656116202059</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3028307041277184</v>
+        <v>0.3106239945667245</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>103</v>
@@ -8658,19 +8658,19 @@
         <v>71323</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59551</v>
+        <v>60612</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>81162</v>
+        <v>81928</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4380208693973146</v>
+        <v>0.4380208693973145</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3657245460158624</v>
+        <v>0.3722428353435013</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4984435151595983</v>
+        <v>0.5031512974370534</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>141</v>
@@ -8679,19 +8679,19 @@
         <v>106726</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>93075</v>
+        <v>91729</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>121395</v>
+        <v>121037</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3407960702626901</v>
+        <v>0.34079607026269</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2972044718279623</v>
+        <v>0.2929054633721562</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3876338281931098</v>
+        <v>0.3864923513954457</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>114934</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>104810</v>
+        <v>103639</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>123779</v>
+        <v>124018</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7645083210963017</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6971692958722819</v>
+        <v>0.6893760054332756</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8233417016167303</v>
+        <v>0.8249343883797943</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>136</v>
@@ -8729,19 +8729,19 @@
         <v>91507</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>81668</v>
+        <v>80902</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>103279</v>
+        <v>102218</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5619791306026855</v>
+        <v>0.5619791306026856</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5015564848404019</v>
+        <v>0.4968487025629468</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.634275453984138</v>
+        <v>0.6277571646564987</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>265</v>
@@ -8750,19 +8750,19 @@
         <v>206442</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>191773</v>
+        <v>192131</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>220093</v>
+        <v>221439</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.65920392973731</v>
+        <v>0.6592039297373098</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6123661718068903</v>
+        <v>0.6135076486045546</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7027955281720378</v>
+        <v>0.7070945366278442</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>25112</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17880</v>
+        <v>17971</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34395</v>
+        <v>33136</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1541531729957342</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1097618047463431</v>
+        <v>0.1103180519988557</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2111394460995579</v>
+        <v>0.2034091135411213</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>114</v>
@@ -8875,19 +8875,19 @@
         <v>72989</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>61715</v>
+        <v>62531</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>84213</v>
+        <v>84809</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.344920075584817</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.291642316076466</v>
+        <v>0.2954967233851999</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3979607161911666</v>
+        <v>0.4007780721897012</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>150</v>
@@ -8896,19 +8896,19 @@
         <v>98101</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>85192</v>
+        <v>85156</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>114446</v>
+        <v>112183</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.261942458254517</v>
+        <v>0.2619424582545171</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2274727806400196</v>
+        <v>0.2273775062466126</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.305585384613048</v>
+        <v>0.2995426934162217</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>137790</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>128507</v>
+        <v>129766</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>145022</v>
+        <v>144931</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8458468270042658</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7888605539004422</v>
+        <v>0.7965908864588785</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.890238195253657</v>
+        <v>0.8896819480011441</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>227</v>
@@ -8946,19 +8946,19 @@
         <v>138623</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>127399</v>
+        <v>126803</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>149897</v>
+        <v>149081</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.655079924415183</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6020392838088334</v>
+        <v>0.5992219278102989</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7083576839235344</v>
+        <v>0.7045032766147999</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>425</v>
@@ -8967,19 +8967,19 @@
         <v>276412</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>260067</v>
+        <v>262330</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>289321</v>
+        <v>289357</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.738057541745483</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.694414615386952</v>
+        <v>0.7004573065837782</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7725272193599805</v>
+        <v>0.7726224937533873</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>151263</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>132834</v>
+        <v>133598</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>168545</v>
+        <v>170348</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2117835912021879</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1859811937598049</v>
+        <v>0.1870514085849808</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2359811115907599</v>
+        <v>0.238504725572117</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>623</v>
@@ -9092,19 +9092,19 @@
         <v>335134</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>315524</v>
+        <v>315017</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>355828</v>
+        <v>357636</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.373560170511435</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3517014944868007</v>
+        <v>0.3511365589122895</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.396627477945499</v>
+        <v>0.3986425699350165</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>855</v>
@@ -9113,19 +9113,19 @@
         <v>486397</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>457466</v>
+        <v>459995</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>515734</v>
+        <v>517394</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3018533270918139</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2838993671348108</v>
+        <v>0.285468907587871</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3200594309148788</v>
+        <v>0.3210898643464045</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>562969</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>545687</v>
+        <v>543884</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>581398</v>
+        <v>580634</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.788216408797812</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7640188884092403</v>
+        <v>0.7614952744278833</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8140188062401952</v>
+        <v>0.8129485914150197</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1073</v>
@@ -9163,19 +9163,19 @@
         <v>562001</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>541307</v>
+        <v>539499</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>581611</v>
+        <v>582118</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.626439829488565</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6033725220545011</v>
+        <v>0.6013574300649834</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6482985055131995</v>
+        <v>0.6488634410877104</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1865</v>
@@ -9184,19 +9184,19 @@
         <v>1124971</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1095634</v>
+        <v>1093974</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1153902</v>
+        <v>1151373</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.698146672908186</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6799405690851211</v>
+        <v>0.6789101356535956</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7161006328651891</v>
+        <v>0.7145310924121285</v>
       </c>
     </row>
     <row r="30">
